--- a/feedback_forms/testing_versions/oil_and_gas_operator_feedback_v070_blank_01.xlsx
+++ b/feedback_forms/testing_versions/oil_and_gas_operator_feedback_v070_blank_01.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://carb-my.sharepoint.com/personal/tony_held_arb_ca_gov/Documents/code/pycharm/feedback_portal/feedback_forms/testing_versions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{597B706A-FF33-4B17-A9CF-CF195352088D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F54F1CA3-559F-4D06-86F6-BA381490F3DE}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{597B706A-FF33-4B17-A9CF-CF195352088D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1859BDA1-3D2F-451F-BC69-CD54E39A2C00}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="kjlmzu+Q6SFTogsx4Qi52aIyd+8jmZeb0EwHe9aMejtDjbzj4NdjjdeuWfsACHLWYXh5VX6pk8UjIKzypXD1rg==" workbookSaltValue="GL9SubWR9+G9ealuHbyojg==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="2687" yWindow="460" windowWidth="19200" windowHeight="11093" xr2:uid="{AD2102A5-37B4-471F-BCEC-083B2F5B9811}"/>
+    <workbookView xWindow="4547" yWindow="2500" windowWidth="19200" windowHeight="11093" xr2:uid="{AD2102A5-37B4-471F-BCEC-083B2F5B9811}"/>
   </bookViews>
   <sheets>
     <sheet name="Feedback Form" sheetId="5" r:id="rId1"/>
@@ -3822,7 +3822,7 @@
       </c>
       <c r="C32" s="34"/>
       <c r="D32" s="48">
-        <v>1004</v>
+        <v>1011</v>
       </c>
       <c r="E32" s="44"/>
       <c r="F32" s="44"/>
@@ -7314,12 +7314,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="e20ceb87-0d79-402a-b4b9-75d78589c76d" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7558,20 +7560,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="e20ceb87-0d79-402a-b4b9-75d78589c76d" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{393EEAE4-A9A0-45DD-A8E7-CAAABB0BE8BF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{368BC477-8FFD-4C56-8224-F3CCFEFBFA36}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e20ceb87-0d79-402a-b4b9-75d78589c76d"/>
+    <ds:schemaRef ds:uri="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7596,12 +7599,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{368BC477-8FFD-4C56-8224-F3CCFEFBFA36}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{393EEAE4-A9A0-45DD-A8E7-CAAABB0BE8BF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e20ceb87-0d79-402a-b4b9-75d78589c76d"/>
-    <ds:schemaRef ds:uri="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>